--- a/Output/Кофемашины.xlsx
+++ b/Output/Кофемашины.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Артикул</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>Кофемашины</t>
+  </si>
+  <si>
+    <t>ECF01BLEU</t>
+  </si>
+  <si>
+    <t>SMEG</t>
+  </si>
+  <si>
+    <t>ECF01CREU</t>
+  </si>
+  <si>
+    <t>ECF01PBEU</t>
+  </si>
+  <si>
+    <t>ECF01RDEU</t>
   </si>
 </sst>
 </file>
@@ -391,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +466,98 @@
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
